--- a/expimp/materialgroup.xlsx
+++ b/expimp/materialgroup.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C147"/>
+  <dimension ref="A1:C145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>90e15142-3c15-4807-a08a-c84a86df6edc</t>
+          <t>b262eb09-ea6f-4c8c-8f86-8c78e16f7b74</t>
         </is>
       </c>
     </row>
@@ -468,7 +468,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1540435f-171a-4160-b395-a6d62e6d02ba</t>
+          <t>20067d25-c91a-4798-9237-e829c34db049</t>
         </is>
       </c>
     </row>
@@ -485,7 +485,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>d5cfd6b4-aa24-47d4-a00b-c75ef522688c</t>
+          <t>8d256b7a-fa54-4ae2-8ca1-22855e1454e7</t>
         </is>
       </c>
     </row>
@@ -502,7 +502,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>33d4bccf-3d84-4ee1-976f-3a7c5e101901</t>
+          <t>94b07629-77ac-4542-a29e-51a218c35a1e</t>
         </is>
       </c>
     </row>
@@ -519,7 +519,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>fb69a975-112f-4ab0-8d6e-718242fd55fc</t>
+          <t>6f887ae6-ab8d-42e5-a3de-6bf5230a8c9b</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>f16f35e1-1b2a-4cdb-bd4c-1257264c2f9b</t>
+          <t>adda88cb-65f1-4461-a213-4c8c3974778e</t>
         </is>
       </c>
     </row>
@@ -553,7 +553,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>eada5fcb-5356-4814-b3b8-3eb243840746</t>
+          <t>bbed7b5c-b666-48ff-8c00-d3fc17b1732d</t>
         </is>
       </c>
     </row>
@@ -570,7 +570,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>e3f9a9e7-2ef8-4ecc-813a-3fd96d18d183</t>
+          <t>0bc3849f-603b-4707-87a0-1d986ff20e7e</t>
         </is>
       </c>
     </row>
@@ -587,7 +587,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>7608d472-4a64-48fd-bf8c-049b6684f293</t>
+          <t>80a456f1-5a49-4182-ad50-c4424ae20ef5</t>
         </is>
       </c>
     </row>
@@ -604,7 +604,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2f41027f-106c-4db6-aedc-95fe537ed95b</t>
+          <t>c81f53ef-6f4f-48e5-ad72-c5616ae37fc8</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>a25556af-b04f-4b72-81ad-4373816a27ed</t>
+          <t>c7a5f9f8-0ac1-4d8f-801a-614c299e9fe1</t>
         </is>
       </c>
     </row>
@@ -638,7 +638,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>5742d2ef-445d-4269-8b80-e79f6416e69c</t>
+          <t>d0c1b155-32e0-426e-9f07-8ea649c764b5</t>
         </is>
       </c>
     </row>
@@ -655,7 +655,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>66e3a686-50e6-4226-98a8-5dc91ab341a0</t>
+          <t>ca135aa6-9378-429e-9800-d4997da3154d</t>
         </is>
       </c>
     </row>
@@ -672,7 +672,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>a6f145b7-7a97-4b73-82ae-2fd6421cd5a3</t>
+          <t>f731569b-b613-4bf3-8606-7094f924f918</t>
         </is>
       </c>
     </row>
@@ -689,7 +689,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>282f0243-c88a-42d1-a9e2-d4c2d07df06e</t>
+          <t>b8726824-cca6-4398-a485-0bdb2ef28d3e</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>072fb229-7a1d-4860-972a-70d631c9f04c</t>
+          <t>94f50949-329c-4f10-b99d-fb7830b3d22e</t>
         </is>
       </c>
     </row>
@@ -723,7 +723,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>e31865ed-684b-41ce-b742-a24ff7c49679</t>
+          <t>6987f710-1ab8-4cc1-8f46-d76636376633</t>
         </is>
       </c>
     </row>
@@ -740,7 +740,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>7bbe3d2f-3dbd-432b-8feb-4c4a65ddc17d</t>
+          <t>6a686b0e-186b-47b8-a776-ec93e5f5f846</t>
         </is>
       </c>
     </row>
@@ -757,7 +757,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>9c4812a6-b93a-439f-b1c7-239c43c037a4</t>
+          <t>df826501-f57d-482d-92fa-c968f72dff90</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>8bd6468a-72d5-4a1b-bbe8-2efabe42a061</t>
+          <t>a89ccf35-a643-4d02-b79c-c2dac76da61d</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>414e2af7-2186-4869-89f3-a32ce77513a6</t>
+          <t>eb0c2cda-4d66-4a4f-b6d1-7a403e9809a2</t>
         </is>
       </c>
     </row>
@@ -808,7 +808,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>30460ddc-3596-4e15-b518-f51252a863e7</t>
+          <t>08a5e9f0-2d38-4c95-ac6d-9019c967a29c</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>f549c5f1-b8ac-4621-bda3-d143674ab530</t>
+          <t>f483314d-2d72-474b-89c1-47f5d0d93acf</t>
         </is>
       </c>
     </row>
@@ -842,7 +842,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>685f5562-1bb3-4dd7-892e-9f232dfb3347</t>
+          <t>14aa7d0a-e928-43e0-8264-e66af0987a4d</t>
         </is>
       </c>
     </row>
@@ -859,7 +859,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>5a44fc03-0b82-4197-833f-e0ba4f0fe233</t>
+          <t>f19643d6-77de-4915-9564-355d43eccf11</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>4cb8340d-bbac-43b6-987b-ba3f08a272f2</t>
+          <t>befd4b73-a71e-41fa-9757-8d1aa438deff</t>
         </is>
       </c>
     </row>
@@ -893,7 +893,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>67ac2dd2-fd9a-4e3a-b087-13e2b00937bd</t>
+          <t>8a9a2159-5147-4241-9da8-323f48100a9f</t>
         </is>
       </c>
     </row>
@@ -910,7 +910,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>f9f85d48-c3c3-4fcd-914d-bad8994e070a</t>
+          <t>fbbff9f7-256a-4e75-be03-9e42e26a8550</t>
         </is>
       </c>
     </row>
@@ -927,7 +927,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>bb4b6e2e-2381-49cc-8167-6729bfda10e2</t>
+          <t>287ca843-7c39-466a-8824-59ee4428b881</t>
         </is>
       </c>
     </row>
@@ -944,7 +944,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>65b73dba-8f65-4ae1-8c0e-91ff74479086</t>
+          <t>55c299da-63a1-4cb7-ba23-c554531d4428</t>
         </is>
       </c>
     </row>
@@ -961,7 +961,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>8e9906e7-81d6-4383-b977-15e9be26c2ec</t>
+          <t>1e6c87ef-470a-499d-bfce-237131de53d6</t>
         </is>
       </c>
     </row>
@@ -978,7 +978,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>6ec750cf-ec10-4e72-8a4c-b5c7dc625aea</t>
+          <t>e3fb9c00-f712-4214-a969-17fb55160449</t>
         </is>
       </c>
     </row>
@@ -995,7 +995,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>5f7b2d79-4977-4be7-93d7-c46d9c4fd98f</t>
+          <t>56918595-71d8-4d12-b235-6a085aecdb59</t>
         </is>
       </c>
     </row>
@@ -1012,7 +1012,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>b8de3f91-7907-48d0-b436-bd60e693d22a</t>
+          <t>342b2f46-fbe2-4ccc-a287-c7d5f13b19bb</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>faaa58a9-2473-4a3f-b005-58d73be7b59c</t>
+          <t>2a53352e-c24e-44b2-a933-ba3d2074334e</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>7c9cdc8c-397c-46fa-99b6-dbb387cd331a</t>
+          <t>9e8232b8-e482-4b38-ad66-54841b3b2d37</t>
         </is>
       </c>
     </row>
@@ -1063,7 +1063,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>3740cdbd-c881-4e9a-b90a-88e647eb4b15</t>
+          <t>2ec9148b-71e7-492b-a6da-75eb9fb39371</t>
         </is>
       </c>
     </row>
@@ -1080,7 +1080,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>c2a1add6-1b0f-469d-b774-ce33fac47c20</t>
+          <t>2ab7f5de-0a6f-43dd-a2d5-f1fcef7a3a49</t>
         </is>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>4b7e2122-0bd8-4033-bf36-9befddf40274</t>
+          <t>7281e27d-56ae-4763-8759-9933d3d382b1</t>
         </is>
       </c>
     </row>
@@ -1114,7 +1114,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ab46b7d0-0b53-4ccb-8738-5ae40ba12176</t>
+          <t>ca281c8f-6fe9-4592-b9a2-760cdfeec450</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>da78d44d-6e68-434e-9edd-ece5ff86c48a</t>
+          <t>1090d0c2-4584-42ee-813f-88aa5bffb4a1</t>
         </is>
       </c>
     </row>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>38c1b412-48c6-4351-89a0-a6b7e91e9b9e</t>
+          <t>180efef8-8ca3-47a7-871a-c282ac263483</t>
         </is>
       </c>
     </row>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>ae6cb9ef-4ec3-49cc-bb04-cfd41faa6400</t>
+          <t>25df4a7f-50a7-44f5-bdb2-e98f0c1adfeb</t>
         </is>
       </c>
     </row>
@@ -1182,7 +1182,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2fc34ba5-9df5-451f-89ca-ac7ac66a225f</t>
+          <t>e555c44c-e319-42ce-8d79-aae49cb9ad68</t>
         </is>
       </c>
     </row>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>a46e6f35-fe72-4294-a82f-72232ed38102</t>
+          <t>ce45139c-5365-4993-85f4-7fdbad0609c1</t>
         </is>
       </c>
     </row>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>787248ef-825f-4335-944f-73f30c8dac16</t>
+          <t>b082ec8d-4598-4943-a1ba-2e3e6d49b7a1</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>29f2127c-6664-41a0-a27c-5b828e77baec</t>
+          <t>b58e9811-a2bd-41c4-8100-08f677cc04da</t>
         </is>
       </c>
     </row>
@@ -1250,7 +1250,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>10a812dd-d0eb-42ea-b3ef-06914b0876e8</t>
+          <t>07758aeb-bc86-471a-9112-fe46a889c627</t>
         </is>
       </c>
     </row>
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>f496b90c-48db-4222-bac0-e4fb05bd55b5</t>
+          <t>50149cff-c0d2-4396-a0a9-a5777060cefa</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>13c77cf1-fc3a-4b02-b3c4-7fb7f9d00936</t>
+          <t>6c5697e2-02f4-44b2-8ce3-33eba73520ee</t>
         </is>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>82624518-660c-4396-9216-e888e047fe29</t>
+          <t>ebcdc2f7-5884-414b-900f-a92c978d7dfc</t>
         </is>
       </c>
     </row>
@@ -1318,7 +1318,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0591dd7a-4ef1-4be3-b91f-c1e0f566ee59</t>
+          <t>6736220f-fdbc-4707-b71f-0f90bc089674</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>f1bddac1-e0b3-4382-b8c4-91820aec43ce</t>
+          <t>efbd423b-fc92-47af-b2a2-b64617dfc869</t>
         </is>
       </c>
     </row>
@@ -1352,7 +1352,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>6c3c91c7-d3f1-4456-b817-f9b3aeddad1d</t>
+          <t>781e29b3-ae42-4905-bdd6-411201d845c9</t>
         </is>
       </c>
     </row>
@@ -1369,7 +1369,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>f0b3a12f-86ac-47f7-87d1-9b1b3cf7436f</t>
+          <t>c147438b-3361-4b93-b09d-22ce505029ba</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>c5a0ab51-d65b-4dcd-8725-a4caab8b727a</t>
+          <t>077feaea-13ec-47ff-a98d-3797f7622e84</t>
         </is>
       </c>
     </row>
@@ -1403,7 +1403,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2e0cfeb5-2c4a-4069-92d8-e3407468e998</t>
+          <t>61145999-ec4f-44d4-a1a0-284e2984e959</t>
         </is>
       </c>
     </row>
@@ -1420,7 +1420,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>127da54a-0d60-474b-9261-34c4a4ff1160</t>
+          <t>55b2a556-bab3-4114-b75e-296161ef6871</t>
         </is>
       </c>
     </row>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>e1ada6bf-e171-4200-ae9b-14915a5172fb</t>
+          <t>9b1b2fa0-e530-459b-bf7b-29dad6b86ae8</t>
         </is>
       </c>
     </row>
@@ -1454,7 +1454,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>1c8d1d11-2720-4258-8eb0-bdae1ef28739</t>
+          <t>4610db9f-240f-45b9-8779-ee2d22b69d93</t>
         </is>
       </c>
     </row>
@@ -1471,7 +1471,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2f252cda-f02f-4cb0-822e-c38e3edf6fde</t>
+          <t>b96bcc12-f857-4e6b-9ceb-f4757e849691</t>
         </is>
       </c>
     </row>
@@ -1488,7 +1488,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>eecdbbb5-9c44-457c-aec6-4a7240a1b769</t>
+          <t>75bddf0b-7141-4aa5-ac13-080f7573c869</t>
         </is>
       </c>
     </row>
@@ -1505,7 +1505,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>c6582eb2-a985-43c7-aa5c-2179bc3f1a42</t>
+          <t>2fb0d038-ceae-4d2f-a105-e1034f002c87</t>
         </is>
       </c>
     </row>
@@ -1522,7 +1522,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>c4dafafe-e478-4de5-a9f4-2441f8848fc4</t>
+          <t>1ea21cc2-46f6-4bcc-87e0-a0bdb12fe299</t>
         </is>
       </c>
     </row>
@@ -1539,7 +1539,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>af755886-9622-49de-8ca1-ba96e00f35ae</t>
+          <t>d586ec73-fa9c-4458-99e4-96ad0d2f89b6</t>
         </is>
       </c>
     </row>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>80b579bd-c7d8-48e3-a17a-c02426d5df0a</t>
+          <t>d84de2b6-b064-4d19-ad9c-4d745af9ab5d</t>
         </is>
       </c>
     </row>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>c1b3c811-26be-4709-84c1-55d91b86e293</t>
+          <t>52e5c773-4307-47ce-b51a-32b09964f479</t>
         </is>
       </c>
     </row>
@@ -1590,7 +1590,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>ae1d5c35-e082-4f15-8f6d-5173d7d48fe6</t>
+          <t>3c1b45c9-09bf-4ade-b852-323ca91856e5</t>
         </is>
       </c>
     </row>
@@ -1607,7 +1607,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>abd35767-3f4b-44c2-9ecc-92c70a04fd05</t>
+          <t>6c3b2cdc-b814-4be5-ad89-a286faf0eeca</t>
         </is>
       </c>
     </row>
@@ -1624,7 +1624,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>3d34442d-7042-4292-aa67-b0d2154161cf</t>
+          <t>e096a36b-168f-453b-8f47-807e2cc400c6</t>
         </is>
       </c>
     </row>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>3cf65dcd-1d27-4323-b272-5e3c977b7316</t>
+          <t>7d99359f-01cf-419e-893e-4b0f31e59a61</t>
         </is>
       </c>
     </row>
@@ -1658,7 +1658,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>042a4fe4-5cdb-4609-8ff3-473779b3d898</t>
+          <t>7ca473eb-1502-437f-ba03-1750f691b0c4</t>
         </is>
       </c>
     </row>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>7d063ea9-90f5-4b9d-8686-0ea8c5ea4fe8</t>
+          <t>670ed21e-099c-49f0-a6dc-3b4bb1ca66d9</t>
         </is>
       </c>
     </row>
@@ -1692,7 +1692,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>bd2c0390-eeff-40f1-8152-3d2be3ead292</t>
+          <t>34fbcebc-5d9b-4eca-8e2d-7ae421b91c21</t>
         </is>
       </c>
     </row>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>bf373cb7-9871-4461-bc1d-b088c34a73d7</t>
+          <t>82098228-ce11-42d2-bbb2-63df770f5f43</t>
         </is>
       </c>
     </row>
@@ -1726,7 +1726,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>319c8ec1-5827-4bd3-a886-3b300c0dec98</t>
+          <t>a6d5025f-80e0-4a79-a042-3079dc333777</t>
         </is>
       </c>
     </row>
@@ -1743,7 +1743,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>b34a5b0a-0867-43ee-a47b-7d945dc180d1</t>
+          <t>0201f446-0ee4-4034-9651-d03daf2c5475</t>
         </is>
       </c>
     </row>
@@ -1760,7 +1760,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>96b67e09-b307-41f2-ad79-922b58464bcd</t>
+          <t>a7eed0ec-c554-4b7d-962b-3caf92e432d8</t>
         </is>
       </c>
     </row>
@@ -1777,7 +1777,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>3d358d5a-4a0b-470e-9da1-45346280e04c</t>
+          <t>ce42c323-2679-4811-bc07-092fbabd1a01</t>
         </is>
       </c>
     </row>
@@ -1794,7 +1794,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>9775f8cd-1d5f-4604-ac94-e62be9e2f086</t>
+          <t>d946f5e3-7bc6-40d1-959a-5646e19d1903</t>
         </is>
       </c>
     </row>
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>d175fc58-b0bf-47ad-bb63-b40e7609faf3</t>
+          <t>25dc90c8-90e3-4625-a837-bdefd23c1912</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>0168598c-adb8-428a-9adb-52ac54e75232</t>
+          <t>423d5a31-99da-4055-a29a-6d17ec410821</t>
         </is>
       </c>
     </row>
@@ -1845,7 +1845,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>a27041b4-3c66-48f8-89b0-2b2bd63dad5d</t>
+          <t>f5f0360c-5a8e-4d6e-baf7-034446864021</t>
         </is>
       </c>
     </row>
@@ -1862,7 +1862,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>f02d6093-88f3-4684-9f1b-89a69021969e</t>
+          <t>55681129-fb9c-42b7-a8db-3ef18e98c114</t>
         </is>
       </c>
     </row>
@@ -1879,7 +1879,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>6f5a8194-6784-4a03-8527-af803fc7ba91</t>
+          <t>d86f81ed-4e15-43b8-b3d0-8e20c48aeb3b</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>31225bea-f605-40aa-8270-2c9fd401d8b1</t>
+          <t>81502df1-0ff5-4b2f-880c-a052554ac3a3</t>
         </is>
       </c>
     </row>
@@ -1913,7 +1913,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>dc6dd04b-bff0-4186-89d6-90e726239502</t>
+          <t>4d4dbb16-5033-4379-a992-ffd9d7f08bb7</t>
         </is>
       </c>
     </row>
@@ -1930,7 +1930,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>e5786807-651d-439f-90b3-ac0d8c30c812</t>
+          <t>6b25568d-b78e-4b40-9fb1-02392b28d0b6</t>
         </is>
       </c>
     </row>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>1e03567d-fd0e-425c-91cd-95352662ca74</t>
+          <t>b460ba7d-1008-4dc7-9bd3-8f8d121bbc2a</t>
         </is>
       </c>
     </row>
@@ -1964,7 +1964,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>2e4400b9-38d3-4475-9709-36b861550b91</t>
+          <t>9aef1e73-806e-46da-8598-13537736df2f</t>
         </is>
       </c>
     </row>
@@ -1981,7 +1981,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>486522d6-1cd7-4d5f-aeba-47fc3ec9eb4f</t>
+          <t>316ee1bd-2c10-449b-800c-6b4c0b6d6e3f</t>
         </is>
       </c>
     </row>
@@ -1998,7 +1998,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>83e4e41a-5132-4119-b454-e4bfec298d03</t>
+          <t>ced32403-d21c-437f-b5e5-ebaeae0b0a3d</t>
         </is>
       </c>
     </row>
@@ -2015,7 +2015,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>062a61f6-0e22-4e66-b424-0672b89613f3</t>
+          <t>3a43dc33-6460-4560-b10b-752a04999bf5</t>
         </is>
       </c>
     </row>
@@ -2032,7 +2032,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>aaac4e14-aff4-4a7a-ab57-ab66b27e1060</t>
+          <t>8f91ca7e-ee82-49b2-8340-9baf1f1c7a4a</t>
         </is>
       </c>
     </row>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>5fb5fb6d-e80c-4e17-9de4-ecce1740da66</t>
+          <t>ecb97076-c9be-4b4e-b742-1351e05033da</t>
         </is>
       </c>
     </row>
@@ -2066,7 +2066,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>9f70ec64-3bf7-4859-b194-2d020dfa0d50</t>
+          <t>a69a7d75-71eb-400a-b452-fee38957aa71</t>
         </is>
       </c>
     </row>
@@ -2083,7 +2083,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>e61609b7-75fe-4af8-8065-128403b6c72d</t>
+          <t>629fae37-0fe9-41f0-9cfb-203fc090d3fe</t>
         </is>
       </c>
     </row>
@@ -2100,7 +2100,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>68c175d7-d5f4-43af-aef3-01e62bb376cd</t>
+          <t>944ea43f-1e52-4907-b846-e833b3f19c83</t>
         </is>
       </c>
     </row>
@@ -2117,7 +2117,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>1040b0b0-5c16-47b2-9677-9012b91aaed3</t>
+          <t>e70c5020-9202-4ea7-b6dd-82da89b83270</t>
         </is>
       </c>
     </row>
@@ -2134,7 +2134,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>e8de5d1b-c255-4323-aa15-e6de1bc83f7e</t>
+          <t>415e56fb-a96a-4f8f-bae1-f8c816c7a4c6</t>
         </is>
       </c>
     </row>
@@ -2151,7 +2151,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>262ceb07-1979-40a7-a867-44d36f81df8f</t>
+          <t>d9e711c4-5ff2-43d9-9a8d-ae686ea1c2dd</t>
         </is>
       </c>
     </row>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>d691d1c1-713b-4c76-9cf4-f90d645df6ed</t>
+          <t>938402e1-a23e-4c89-9295-df4a12b4c40f</t>
         </is>
       </c>
     </row>
@@ -2185,7 +2185,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>2f1dbcfc-1d93-4257-8985-171e3117c6fc</t>
+          <t>3fe66284-1215-4486-9038-ea434fa0cc49</t>
         </is>
       </c>
     </row>
@@ -2202,7 +2202,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>088414b6-a276-479b-aa24-938ebe2db911</t>
+          <t>684c83b1-bb24-4292-bb31-7f008d547417</t>
         </is>
       </c>
     </row>
@@ -2219,7 +2219,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>eb1fd382-fbb0-4b52-86c5-409626cdbbbd</t>
+          <t>30338dac-4c64-45ab-b5e4-f8bcf6b916d6</t>
         </is>
       </c>
     </row>
@@ -2236,7 +2236,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>618d618e-d073-48d8-95d2-14eb86f16425</t>
+          <t>ce6f3d60-5201-441d-9723-3ed5e90cdf34</t>
         </is>
       </c>
     </row>
@@ -2253,7 +2253,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>f340665f-07b7-4a6a-9ee8-9d02371ff749</t>
+          <t>16c2716a-79c9-4219-8bb3-9f75377d002a</t>
         </is>
       </c>
     </row>
@@ -2270,7 +2270,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>4905c201-6a8c-4fb7-942c-4d1a6c9cbe2a</t>
+          <t>d562cb55-c262-4986-ba0b-d7ec6c35b62e</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>6f9945b2-c83b-4f2e-9970-843a34a1eda4</t>
+          <t>182cf31b-7d1d-43a7-a335-90a88f765ca5</t>
         </is>
       </c>
     </row>
@@ -2304,7 +2304,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>d7c87e83-b057-478d-aed1-5788c75482be</t>
+          <t>333d5b40-b229-4d34-b23d-d47d242652cf</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>aceba4d9-2606-4ba5-af15-1a3ae64f2e28</t>
+          <t>f45b78dc-4dba-4083-9fd3-fce8249a9282</t>
         </is>
       </c>
     </row>
@@ -2338,7 +2338,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>bdcda2aa-66f3-4591-b5a2-109a52500cd7</t>
+          <t>8046255e-19a0-445e-92e4-9d660e63e3cc</t>
         </is>
       </c>
     </row>
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>873214f3-7eb2-4b60-9878-dbdb170c5755</t>
+          <t>21166d7e-e892-4106-a6e1-48560fe8a9c1</t>
         </is>
       </c>
     </row>
@@ -2372,7 +2372,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>af052553-1f08-4eb1-ad9a-95246132a17c</t>
+          <t>a15e4615-feb9-4dba-8738-a249a62aed99</t>
         </is>
       </c>
     </row>
@@ -2389,7 +2389,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>563dad4f-58c0-471f-b291-89c213c26767</t>
+          <t>637b6d15-8325-484b-b469-7fb7cea35c82</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>09f1aa40-4a1c-460f-ab5e-f28f313c3de7</t>
+          <t>9afe3a43-cfb0-4da9-8294-01296167b744</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>3071c590-d19a-45e2-a315-b7a57dd5ef7d</t>
+          <t>13b1de24-250b-4a22-b485-d7b6f2a68542</t>
         </is>
       </c>
     </row>
@@ -2440,7 +2440,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>ad0c4c43-1654-4b86-a330-8e0e5b9c78db</t>
+          <t>9e5da1d6-c802-4ee6-8886-df6add8d0c65</t>
         </is>
       </c>
     </row>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>b8b969e7-b7a1-4f74-bed1-c27224b53201</t>
+          <t>c9488e02-db66-4ead-9947-f382f5d76a47</t>
         </is>
       </c>
     </row>
@@ -2474,7 +2474,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>837c60f5-9dd1-4d50-981e-4055ac133fd1</t>
+          <t>34dfdd87-e273-4993-9db9-e04b31e621ef</t>
         </is>
       </c>
     </row>
@@ -2491,7 +2491,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>bb9d8cfe-c475-4779-a5ca-d280fdc33caf</t>
+          <t>1fe88084-7fa1-45f0-b9cd-2e5f77436592</t>
         </is>
       </c>
     </row>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>938d098a-35e6-4fb2-983c-c40a63703fd8</t>
+          <t>191230ed-1d2d-47ed-b802-211efeeff66f</t>
         </is>
       </c>
     </row>
@@ -2525,7 +2525,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>a3e4f86c-4e30-401d-9afc-42150bcc9243</t>
+          <t>95c811d0-4a0d-4dcb-afca-6efdbc9f2cac</t>
         </is>
       </c>
     </row>
@@ -2542,7 +2542,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>976d88e6-4ead-48b8-b2ca-d2c2861c42f5</t>
+          <t>c0f661de-166c-4714-bfb2-c85737eb1e08</t>
         </is>
       </c>
     </row>
@@ -2559,7 +2559,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>514eef97-5438-4a48-8820-dd6d8314df5e</t>
+          <t>7f83095e-0e08-4226-bba7-76ab8504a0ae</t>
         </is>
       </c>
     </row>
@@ -2576,7 +2576,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>845ae6a3-47cb-4358-90c2-662d264f2686</t>
+          <t>4b47c76d-3fb7-43c6-9336-64890aa0d197</t>
         </is>
       </c>
     </row>
@@ -2593,7 +2593,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>e9f46b74-f483-4e1e-9e8f-dfdda03288c7</t>
+          <t>012ce27d-896f-46ed-9e49-32a579d428b5</t>
         </is>
       </c>
     </row>
@@ -2610,7 +2610,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>e2583a16-b062-4cd1-8244-4e3ceb736cca</t>
+          <t>70e2fb22-b627-4357-9103-a8639d19fa95</t>
         </is>
       </c>
     </row>
@@ -2627,7 +2627,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>a44a356c-76c8-4602-9041-4c7cb62bb382</t>
+          <t>542ef1fc-6954-4a30-a3b7-c306e7cc6040</t>
         </is>
       </c>
     </row>
@@ -2644,7 +2644,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>03b0b834-eb49-43c9-a893-c9e6067bae03</t>
+          <t>976ae577-81c9-4e01-93ec-435c94d0e2b7</t>
         </is>
       </c>
     </row>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>9a128b3c-50c9-4839-9698-cd83722985e8</t>
+          <t>04d04496-79a7-4ec3-a4c7-5e83cb8c6bbd</t>
         </is>
       </c>
     </row>
@@ -2678,7 +2678,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>393e28cd-23df-4d55-b28a-07de2b226477</t>
+          <t>988926e8-abd4-47ae-9ea4-1e9c7f1401c4</t>
         </is>
       </c>
     </row>
@@ -2695,7 +2695,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>d70192bf-31d0-41b7-a2f7-98673d9a9a41</t>
+          <t>6d743f00-836c-4491-a74e-bed0738dcdc9</t>
         </is>
       </c>
     </row>
@@ -2712,7 +2712,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>95aa988e-6dae-4425-a0e2-aeac0a5034ea</t>
+          <t>72f967d9-82e9-4e18-849a-c8355110fcd3</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>f23347e5-69f1-4f7d-a43e-e3d3fda8062e</t>
+          <t>4c1646f3-0ddb-46de-9acb-7a6ba1833b0d</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2746,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>541d33ca-b5b4-4501-b700-d5168174da7d</t>
+          <t>d536b822-1382-4806-ac50-1d7aa4d240d6</t>
         </is>
       </c>
     </row>
@@ -2763,7 +2763,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>c5bd6303-4414-43a7-b895-1fe6edc530b3</t>
+          <t>97d862fc-4869-48bb-abb2-40b9765db574</t>
         </is>
       </c>
     </row>
@@ -2780,7 +2780,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>2f2187b7-1c60-4c69-9877-187513b9d1e3</t>
+          <t>8fd09f81-3eff-4c4e-a4b6-c02879a80b0b</t>
         </is>
       </c>
     </row>
@@ -2797,7 +2797,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>7485dfd9-4c2a-40d4-a9d8-fcaf6d36721b</t>
+          <t>aa6f15ed-b2bb-41cf-9258-762f4e2ace87</t>
         </is>
       </c>
     </row>
@@ -2814,7 +2814,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>abf084fc-eca2-48cf-88b0-12d105fc0bc1</t>
+          <t>6a059539-7691-4eb2-93d7-71cd6ae5fdc7</t>
         </is>
       </c>
     </row>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>5cb430c4-d6e0-4f2f-b182-d5c9a83ece68</t>
+          <t>7f0cbce7-c30e-4618-9bc4-9105275103b8</t>
         </is>
       </c>
     </row>
@@ -2848,7 +2848,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>a002a469-26e4-45ae-8818-afcbbc0139ab</t>
+          <t>32727927-0e16-4f86-ae6c-926c4ee6b997</t>
         </is>
       </c>
     </row>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>19553383-588b-48bc-a52e-503d18924cb3</t>
+          <t>d8ea4752-eff2-4fe6-91e7-47f1eab3d5e8</t>
         </is>
       </c>
     </row>
@@ -2882,41 +2882,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>4c5ca611-b016-4bd0-af2d-0c03bd33aaf9</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>Технология 1</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>d6baec74-4b9e-4e33-b79c-faed4808207f</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>77dba80d-65f8-4fc2-b529-7b83c0d694d1</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>Технология 2</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>d6baec74-4b9e-4e33-b79c-faed4808207f</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>d02fa738-7d0e-4336-a2e9-a1da0c7a6f38</t>
+          <t>64e8f30d-e427-4bb6-8815-27335ad1d547</t>
         </is>
       </c>
     </row>
